--- a/Formula Excel Template.xlsx
+++ b/Formula Excel Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\excel-analytics-practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A09404-002E-48E3-9881-C60B05E4B594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="9" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <sheet name="Count-CountIF" sheetId="5" r:id="rId10"/>
     <sheet name="Days-NetworkDays" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,14 +37,38 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="93">
   <si>
     <t>FirstName</t>
   </si>
@@ -301,9 +326,6 @@
   </si>
   <si>
     <t>Max/Min formula</t>
-  </si>
-  <si>
-    <t>old version of excel I used nested if statement</t>
   </si>
   <si>
     <t>phone numbers can be useful for len to determine appropriate phone number length</t>
@@ -330,7 +352,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,10 +388,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -687,7 +708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -792,8 +813,6 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -999,17 +1018,17 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -1055,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -1388,13 +1407,13 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1427,7 +1446,7 @@
       <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
       <c r="H1" t="s">
@@ -1462,13 +1481,13 @@
       <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>45000</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J2">
@@ -1499,13 +1518,13 @@
       <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>36000</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J3">
@@ -1536,13 +1555,13 @@
       <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>63000</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>58</v>
       </c>
       <c r="J4">
@@ -1573,13 +1592,13 @@
       <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>47000</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>59</v>
       </c>
       <c r="J5">
@@ -1610,13 +1629,13 @@
       <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>50000</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>60</v>
       </c>
       <c r="J6">
@@ -1647,13 +1666,13 @@
       <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>65000</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J7">
@@ -1684,13 +1703,13 @@
       <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>41000</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J8">
@@ -1721,13 +1740,13 @@
       <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>48000</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>62</v>
       </c>
       <c r="J9">
@@ -1758,13 +1777,13 @@
       <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>42000</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>62</v>
       </c>
       <c r="J10">
@@ -1782,14 +1801,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,7 +1820,7 @@
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1836,7 +1855,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1868,15 +1887,12 @@
         <f>IF(D2:D10 &gt; 30, "Old", "Young")</f>
         <v>Young</v>
       </c>
-      <c r="K2" t="str">
-        <f>IF(F2="Salesman", "Sales", IF(F2 = "HR", "Fire Immediately", IF(F2 = "Regional Manager", "Give Bonus", "unkown")))</f>
+      <c r="K2" t="str" cm="1">
+        <f t="array" ref="K2">_xlfn.IFS(F2 = "Salesman", "Sales", F2= "Reception", "Fire from work", F2= "Accountant", "Give Bonus")</f>
         <v>Sales</v>
       </c>
-      <c r="L2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1908,12 +1924,12 @@
         <f t="shared" ref="J3:J10" si="0">IF(D3:D11 &gt; 30, "Old", "Young")</f>
         <v>Young</v>
       </c>
-      <c r="K3" t="str">
-        <f t="shared" ref="K3:K10" si="1">IF(F3="Salesman", "Sales", IF(F3 = "HR", "Fire Immediately", IF(F3 = "Regional Manager", "Give Bonus", "unkown")))</f>
-        <v>unkown</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K3" t="e" cm="1">
+        <f t="array" ref="K3">_xlfn.IFS(F3 = "Salesman", "Sales", F3= "Reception", "Fire from work", F3= "Accountant", "Give Bonus")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1945,12 +1961,12 @@
         <f t="shared" si="0"/>
         <v>Young</v>
       </c>
-      <c r="K4" t="str">
-        <f t="shared" si="1"/>
+      <c r="K4" t="str" cm="1">
+        <f t="array" ref="K4">_xlfn.IFS(F4 = "Salesman", "Sales", F4= "Reception", "Fire from work", F4= "Accountant", "Give Bonus")</f>
         <v>Sales</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1982,12 +1998,12 @@
         <f t="shared" si="0"/>
         <v>Old</v>
       </c>
-      <c r="K5" t="str">
-        <f t="shared" si="1"/>
-        <v>unkown</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K5" t="str" cm="1">
+        <f t="array" ref="K5">_xlfn.IFS(F5 = "Salesman", "Sales", F5= "Reception", "Fire from work", F5= "Accountant", "Give Bonus")</f>
+        <v>Give Bonus</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2019,12 +2035,12 @@
         <f t="shared" si="0"/>
         <v>Old</v>
       </c>
-      <c r="K6" t="str">
-        <f t="shared" si="1"/>
-        <v>Fire Immediately</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K6" t="e" cm="1">
+        <f t="array" ref="K6">_xlfn.IFS(F6 = "Salesman", "Sales", F6= "Reception", "Fire from work", F6= "Accountant", "Give Bonus")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2056,12 +2072,12 @@
         <f t="shared" si="0"/>
         <v>Old</v>
       </c>
-      <c r="K7" t="str">
-        <f t="shared" si="1"/>
-        <v>Give Bonus</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K7" t="e" cm="1">
+        <f t="array" ref="K7">_xlfn.IFS(F7 = "Salesman", "Sales", F7= "Reception", "Fire from work", F7= "Accountant", "Give Bonus")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2093,12 +2109,12 @@
         <f t="shared" si="0"/>
         <v>Old</v>
       </c>
-      <c r="K8" t="str">
-        <f t="shared" si="1"/>
-        <v>unkown</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K8" t="e" cm="1">
+        <f t="array" ref="K8">_xlfn.IFS(F8 = "Salesman", "Sales", F8= "Reception", "Fire from work", F8= "Accountant", "Give Bonus")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2130,12 +2146,12 @@
         <f t="shared" si="0"/>
         <v>Old</v>
       </c>
-      <c r="K9" t="str">
-        <f t="shared" si="1"/>
+      <c r="K9" t="str" cm="1">
+        <f t="array" ref="K9">_xlfn.IFS(F9 = "Salesman", "Sales", F9= "Reception", "Fire from work", F9= "Accountant", "Give Bonus")</f>
         <v>Sales</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2167,9 +2183,9 @@
         <f t="shared" si="0"/>
         <v>Old</v>
       </c>
-      <c r="K10" t="str">
-        <f t="shared" si="1"/>
-        <v>unkown</v>
+      <c r="K10" t="str" cm="1">
+        <f t="array" ref="K10">_xlfn.IFS(F10 = "Salesman", "Sales", F10= "Reception", "Fire from work", F10= "Accountant", "Give Bonus")</f>
+        <v>Give Bonus</v>
       </c>
     </row>
   </sheetData>
@@ -2178,7 +2194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -2295,7 +2311,7 @@
         <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2535,7 +2551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -2615,10 +2631,10 @@
       <c r="G2">
         <v>45000</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -2637,7 +2653,7 @@
         <v>2001</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2662,10 +2678,10 @@
       <c r="G3">
         <v>36000</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -2706,10 +2722,10 @@
       <c r="G4">
         <v>63000</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>58</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -2750,10 +2766,10 @@
       <c r="G5">
         <v>47000</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>59</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -2794,10 +2810,10 @@
       <c r="G6">
         <v>50000</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>60</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -2838,10 +2854,10 @@
       <c r="G7">
         <v>65000</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -2882,10 +2898,10 @@
       <c r="G8">
         <v>41000</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -2926,10 +2942,10 @@
       <c r="G9">
         <v>48000</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -2970,10 +2986,10 @@
       <c r="G10">
         <v>42000</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>62</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -2998,7 +3014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -3013,7 +3029,6 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -3047,8 +3062,8 @@
       <c r="J1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>89</v>
+      <c r="K1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3083,11 +3098,11 @@
         <f>TEXT(H2, "dd/mm/yyyy")</f>
         <v>02/11/2001</v>
       </c>
-      <c r="K2" s="2" t="str">
+      <c r="K2" t="str">
         <f>RIGHT(J2, 4)</f>
         <v>2001</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -3121,11 +3136,11 @@
         <f t="shared" ref="J3:J10" si="0">TEXT(H3, "dd/mm/yyyy")</f>
         <v>03/10/1999</v>
       </c>
-      <c r="K3" s="2" t="str">
+      <c r="K3" t="str">
         <f t="shared" ref="K3:K10" si="1">RIGHT(J3, 4)</f>
         <v>1999</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -3159,11 +3174,11 @@
         <f t="shared" si="0"/>
         <v>04/07/2000</v>
       </c>
-      <c r="K4" s="2" t="str">
+      <c r="K4" t="str">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -3197,11 +3212,11 @@
         <f t="shared" si="0"/>
         <v>05/01/2000</v>
       </c>
-      <c r="K5" s="2" t="str">
+      <c r="K5" t="str">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -3235,11 +3250,11 @@
         <f t="shared" si="0"/>
         <v>06/05/2001</v>
       </c>
-      <c r="K6" s="2" t="str">
+      <c r="K6" t="str">
         <f t="shared" si="1"/>
         <v>2001</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -3273,11 +3288,11 @@
         <f t="shared" si="0"/>
         <v>07/12/1995</v>
       </c>
-      <c r="K7" s="2" t="str">
+      <c r="K7" t="str">
         <f t="shared" si="1"/>
         <v>1995</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -3311,11 +3326,11 @@
         <f t="shared" si="0"/>
         <v>08/11/2003</v>
       </c>
-      <c r="K8" s="2" t="str">
+      <c r="K8" t="str">
         <f t="shared" si="1"/>
         <v>2003</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -3349,11 +3364,11 @@
         <f t="shared" si="0"/>
         <v>09/06/2002</v>
       </c>
-      <c r="K9" s="2" t="str">
+      <c r="K9" t="str">
         <f t="shared" si="1"/>
         <v>2002</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -3387,17 +3402,17 @@
         <f t="shared" si="0"/>
         <v>10/08/2003</v>
       </c>
-      <c r="K10" s="2" t="str">
+      <c r="K10" t="str">
         <f t="shared" si="1"/>
         <v>2003</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H13" s="3"/>
+      <c r="H13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3405,7 +3420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -3460,10 +3475,10 @@
       <c r="A2">
         <v>1001</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2">
@@ -3493,10 +3508,10 @@
       <c r="A3">
         <v>1002</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3">
@@ -3526,10 +3541,10 @@
       <c r="A4">
         <v>1003</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D4">
@@ -3559,10 +3574,10 @@
       <c r="A5">
         <v>1004</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5">
@@ -3592,10 +3607,10 @@
       <c r="A6">
         <v>1005</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D6">
@@ -3625,10 +3640,10 @@
       <c r="A7">
         <v>1006</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D7">
@@ -3658,10 +3673,10 @@
       <c r="A8">
         <v>1007</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D8">
@@ -3691,10 +3706,10 @@
       <c r="A9">
         <v>1008</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D9">
@@ -3724,10 +3739,10 @@
       <c r="A10">
         <v>1009</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D10">
@@ -3759,7 +3774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -3812,7 +3827,7 @@
         <v>18</v>
       </c>
       <c r="K1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4174,7 +4189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -4188,7 +4203,6 @@
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="2"/>
     <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -4213,7 +4227,7 @@
       <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
       <c r="H1" t="s">
@@ -4251,13 +4265,13 @@
       <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>45000</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>56</v>
       </c>
       <c r="J2" t="str">
@@ -4296,13 +4310,13 @@
       <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>36000</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J3" t="str">
@@ -4341,13 +4355,13 @@
       <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>63000</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>58</v>
       </c>
       <c r="J4" t="str">
@@ -4386,13 +4400,13 @@
       <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>47000</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>59</v>
       </c>
       <c r="J5" t="str">
@@ -4431,13 +4445,13 @@
       <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>50000</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>60</v>
       </c>
       <c r="J6" t="str">
@@ -4476,13 +4490,13 @@
       <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>65000</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J7" t="str">
@@ -4521,13 +4535,13 @@
       <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>41000</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>61</v>
       </c>
       <c r="J8" t="str">
@@ -4566,13 +4580,13 @@
       <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>48000</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>62</v>
       </c>
       <c r="J9" t="str">
@@ -4611,13 +4625,13 @@
       <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>42000</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>62</v>
       </c>
       <c r="J10" t="str">
@@ -4638,40 +4652,40 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4680,7 +4694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -4725,13 +4739,13 @@
         <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
